--- a/06_output/aggregated/xlsx/Studies.xlsx
+++ b/06_output/aggregated/xlsx/Studies.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="64">
   <si>
     <t>feature</t>
   </si>
@@ -26,15 +26,114 @@
     <t>need</t>
   </si>
   <si>
+    <t>Collaboration at metamodel level</t>
+  </si>
+  <si>
+    <t>Collaboration at model level</t>
+  </si>
+  <si>
+    <t>Desktop-based environment</t>
+  </si>
+  <si>
+    <t>Editors w/ multiple notations</t>
+  </si>
+  <si>
+    <t>Importing external languages into the modeling environment</t>
+  </si>
+  <si>
+    <t>Mobile modeling environment</t>
+  </si>
+  <si>
+    <t>Model validation</t>
+  </si>
+  <si>
+    <t>MVM</t>
+  </si>
+  <si>
+    <t>Sketch-based editors</t>
+  </si>
+  <si>
+    <t>Tabular editors</t>
+  </si>
+  <si>
+    <t>Textual editors</t>
+  </si>
+  <si>
+    <t>Tree-based editors</t>
+  </si>
+  <si>
+    <t>Visual editors</t>
+  </si>
+  <si>
+    <t>Web-based environment</t>
+  </si>
+  <si>
+    <t>Automation of resolution</t>
+  </si>
+  <si>
+    <t>Cloud architecture</t>
+  </si>
+  <si>
+    <t>Conflict awareness</t>
+  </si>
+  <si>
+    <t>Eventual consistency</t>
+  </si>
+  <si>
+    <t>External versioning</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Human-Machine collaboration</t>
+  </si>
+  <si>
+    <t>Internal versioning</t>
+  </si>
+  <si>
+    <t>Locking</t>
+  </si>
+  <si>
+    <t>Manual resolution</t>
+  </si>
+  <si>
+    <t>Model diff</t>
+  </si>
+  <si>
+    <t>Model merging</t>
+  </si>
+  <si>
+    <t>Offline collab</t>
+  </si>
+  <si>
+    <t>P2P architecture</t>
+  </si>
+  <si>
+    <t>Prevention</t>
+  </si>
+  <si>
+    <t>RBAC</t>
+  </si>
+  <si>
+    <t>Real-time collab</t>
+  </si>
+  <si>
+    <t>Semantic diff</t>
+  </si>
+  <si>
+    <t>User presence visualization</t>
+  </si>
+  <si>
+    <t>Version branching</t>
+  </si>
+  <si>
     <t>Annotations</t>
   </si>
   <si>
     <t>Audio</t>
   </si>
   <si>
-    <t>Automation of resolution</t>
-  </si>
-  <si>
     <t>Built-in communication tools</t>
   </si>
   <si>
@@ -44,43 +143,19 @@
     <t>Chat</t>
   </si>
   <si>
-    <t>Cloud architecture</t>
-  </si>
-  <si>
-    <t>Collaboration at metamodel level</t>
-  </si>
-  <si>
-    <t>Collaboration at model level</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>Commit msg</t>
-  </si>
-  <si>
-    <t>Conflict awareness</t>
+    <t>Commit messages</t>
   </si>
   <si>
     <t>Conflicts table</t>
   </si>
   <si>
-    <t>Desktop env</t>
-  </si>
-  <si>
-    <t>Editors w/ multiple notations</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Eventual consistency</t>
-  </si>
-  <si>
-    <t>Ext. comm. tools</t>
-  </si>
-  <si>
-    <t>Ext. versioning</t>
+    <t>External communication tools</t>
   </si>
   <si>
     <t>Face-to-face</t>
@@ -95,112 +170,40 @@
     <t>Hand gestures</t>
   </si>
   <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>Human-Machine collab</t>
-  </si>
-  <si>
-    <t>Import ext. lang.</t>
-  </si>
-  <si>
-    <t>Intl. versioning</t>
-  </si>
-  <si>
-    <t>Locking</t>
-  </si>
-  <si>
-    <t>Manual resolution</t>
-  </si>
-  <si>
-    <t>Mobile env</t>
-  </si>
-  <si>
-    <t>Model diff</t>
-  </si>
-  <si>
-    <t>Model merging</t>
-  </si>
-  <si>
-    <t>Model validation</t>
-  </si>
-  <si>
     <t>Multimedia annotations</t>
   </si>
   <si>
-    <t>MVM</t>
-  </si>
-  <si>
-    <t>Offline collab</t>
-  </si>
-  <si>
-    <t>P2P architecture</t>
-  </si>
-  <si>
-    <t>Prevention</t>
-  </si>
-  <si>
     <t>Proposals</t>
   </si>
   <si>
-    <t>RBAC</t>
-  </si>
-  <si>
-    <t>Real-time collab</t>
-  </si>
-  <si>
     <t>Reviews</t>
   </si>
   <si>
     <t>Screen sharing</t>
   </si>
   <si>
-    <t>Semantic diff</t>
-  </si>
-  <si>
-    <t>Sketch-based editors</t>
-  </si>
-  <si>
     <t>Sticky notes</t>
   </si>
   <si>
-    <t>Tabular editors</t>
-  </si>
-  <si>
     <t>Tags</t>
   </si>
   <si>
-    <t>Textual editors</t>
-  </si>
-  <si>
-    <t>Tree-based editors</t>
-  </si>
-  <si>
-    <t>User presence visualization</t>
-  </si>
-  <si>
-    <t>Version branching</t>
-  </si>
-  <si>
-    <t>Visual editors</t>
+    <t>Voice</t>
   </si>
   <si>
     <t>Voting</t>
   </si>
   <si>
-    <t>Web env</t>
-  </si>
-  <si>
     <t>Wiki</t>
   </si>
   <si>
+    <t>Model management</t>
+  </si>
+  <si>
+    <t>Collaboration</t>
+  </si>
+  <si>
     <t>Communication</t>
-  </si>
-  <si>
-    <t>Collaboration</t>
-  </si>
-  <si>
-    <t>Model management</t>
   </si>
 </sst>
 </file>
@@ -270,13 +273,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" t="n">
-        <v>22.22</v>
+        <v>16.67</v>
       </c>
       <c r="D2" t="n">
-        <v>73.17</v>
+        <v>68.29</v>
       </c>
     </row>
     <row r="3">
@@ -284,13 +287,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" t="n">
-        <v>5.56</v>
+        <v>100.0</v>
       </c>
       <c r="D3" t="n">
-        <v>75.68</v>
+        <v>97.56</v>
       </c>
     </row>
     <row r="4">
@@ -301,10 +304,10 @@
         <v>61</v>
       </c>
       <c r="C4" t="n">
-        <v>31.94</v>
+        <v>61.11</v>
       </c>
       <c r="D4" t="n">
-        <v>76.92</v>
+        <v>70.73</v>
       </c>
     </row>
     <row r="5">
@@ -312,13 +315,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" t="n">
-        <v>68.06</v>
+        <v>48.61</v>
       </c>
       <c r="D5" t="n">
-        <v>74.36</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="6">
@@ -326,13 +329,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" t="n">
-        <v>6.94</v>
+        <v>23.61</v>
       </c>
       <c r="D6" t="n">
-        <v>50.0</v>
+        <v>55.26</v>
       </c>
     </row>
     <row r="7">
@@ -340,13 +343,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" t="n">
-        <v>37.5</v>
+        <v>6.94</v>
       </c>
       <c r="D7" t="n">
-        <v>90.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="8">
@@ -357,10 +360,10 @@
         <v>61</v>
       </c>
       <c r="C8" t="n">
-        <v>95.83</v>
+        <v>34.72</v>
       </c>
       <c r="D8" t="n">
-        <v>84.21</v>
+        <v>95.12</v>
       </c>
     </row>
     <row r="9">
@@ -368,13 +371,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" t="n">
-        <v>16.67</v>
+        <v>25.0</v>
       </c>
       <c r="D9" t="n">
-        <v>68.29</v>
+        <v>97.56</v>
       </c>
     </row>
     <row r="10">
@@ -382,13 +385,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" t="n">
-        <v>100.0</v>
+        <v>9.72</v>
       </c>
       <c r="D10" t="n">
-        <v>97.56</v>
+        <v>37.84</v>
       </c>
     </row>
     <row r="11">
@@ -396,13 +399,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" t="n">
-        <v>16.67</v>
+        <v>9.72</v>
       </c>
       <c r="D11" t="n">
-        <v>90.24</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="12">
@@ -410,13 +413,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" t="n">
-        <v>8.33</v>
+        <v>13.89</v>
       </c>
       <c r="D12" t="n">
-        <v>89.74</v>
+        <v>80.49</v>
       </c>
     </row>
     <row r="13">
@@ -427,10 +430,10 @@
         <v>61</v>
       </c>
       <c r="C13" t="n">
-        <v>30.56</v>
+        <v>25.0</v>
       </c>
       <c r="D13" t="n">
-        <v>87.5</v>
+        <v>64.1</v>
       </c>
     </row>
     <row r="14">
@@ -438,13 +441,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" t="n">
-        <v>5.56</v>
+        <v>72.22</v>
       </c>
       <c r="D14" t="n">
-        <v>55.56</v>
+        <v>95.12</v>
       </c>
     </row>
     <row r="15">
@@ -452,13 +455,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" t="n">
-        <v>61.11</v>
+        <v>37.5</v>
       </c>
       <c r="D15" t="n">
-        <v>70.73</v>
+        <v>87.8</v>
       </c>
     </row>
     <row r="16">
@@ -469,10 +472,10 @@
         <v>62</v>
       </c>
       <c r="C16" t="n">
-        <v>48.61</v>
+        <v>31.94</v>
       </c>
       <c r="D16" t="n">
-        <v>85.0</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="17">
@@ -480,13 +483,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C17" t="n">
-        <v>11.11</v>
+        <v>95.83</v>
       </c>
       <c r="D17" t="n">
-        <v>82.93</v>
+        <v>84.21</v>
       </c>
     </row>
     <row r="18">
@@ -494,13 +497,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" t="n">
-        <v>51.39</v>
+        <v>30.56</v>
       </c>
       <c r="D18" t="n">
-        <v>52.94</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="19">
@@ -508,13 +511,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C19" t="n">
-        <v>22.22</v>
+        <v>51.39</v>
       </c>
       <c r="D19" t="n">
-        <v>78.95</v>
+        <v>52.94</v>
       </c>
     </row>
     <row r="20">
@@ -522,7 +525,7 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" t="n">
         <v>9.72</v>
@@ -536,13 +539,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C21" t="n">
-        <v>5.56</v>
+        <v>23.61</v>
       </c>
       <c r="D21" t="n">
-        <v>77.5</v>
+        <v>95.12</v>
       </c>
     </row>
     <row r="22">
@@ -550,13 +553,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C22" t="n">
-        <v>9.72</v>
+        <v>1.39</v>
       </c>
       <c r="D22" t="n">
-        <v>89.47</v>
+        <v>59.38</v>
       </c>
     </row>
     <row r="23">
@@ -564,13 +567,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C23" t="n">
-        <v>1.39</v>
+        <v>4.17</v>
       </c>
       <c r="D23" t="n">
-        <v>43.59</v>
+        <v>84.21</v>
       </c>
     </row>
     <row r="24">
@@ -578,13 +581,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C24" t="n">
-        <v>1.39</v>
+        <v>25.0</v>
       </c>
       <c r="D24" t="n">
-        <v>22.22</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="25">
@@ -592,13 +595,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" t="n">
-        <v>23.61</v>
+        <v>44.44</v>
       </c>
       <c r="D25" t="n">
-        <v>95.12</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="26">
@@ -606,13 +609,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" t="n">
-        <v>1.39</v>
+        <v>97.22</v>
       </c>
       <c r="D26" t="n">
-        <v>59.38</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="27">
@@ -623,10 +626,10 @@
         <v>62</v>
       </c>
       <c r="C27" t="n">
-        <v>23.61</v>
+        <v>33.33</v>
       </c>
       <c r="D27" t="n">
-        <v>55.26</v>
+        <v>95.12</v>
       </c>
     </row>
     <row r="28">
@@ -634,13 +637,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28" t="n">
-        <v>4.17</v>
+        <v>50.0</v>
       </c>
       <c r="D28" t="n">
-        <v>84.21</v>
+        <v>90.24</v>
       </c>
     </row>
     <row r="29">
@@ -648,13 +651,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" t="n">
-        <v>25.0</v>
+        <v>15.28</v>
       </c>
       <c r="D29" t="n">
-        <v>75.0</v>
+        <v>34.29</v>
       </c>
     </row>
     <row r="30">
@@ -662,13 +665,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>44.44</v>
+        <v>11.11</v>
       </c>
       <c r="D30" t="n">
-        <v>85.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="31">
@@ -679,10 +682,10 @@
         <v>62</v>
       </c>
       <c r="C31" t="n">
-        <v>6.94</v>
+        <v>62.5</v>
       </c>
       <c r="D31" t="n">
-        <v>10.0</v>
+        <v>92.68</v>
       </c>
     </row>
     <row r="32">
@@ -690,13 +693,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C32" t="n">
-        <v>97.22</v>
+        <v>59.72</v>
       </c>
       <c r="D32" t="n">
-        <v>90.0</v>
+        <v>95.12</v>
       </c>
     </row>
     <row r="33">
@@ -704,13 +707,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C33" t="n">
-        <v>33.33</v>
+        <v>15.28</v>
       </c>
       <c r="D33" t="n">
-        <v>95.12</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="34">
@@ -721,10 +724,10 @@
         <v>62</v>
       </c>
       <c r="C34" t="n">
-        <v>34.72</v>
+        <v>95.83</v>
       </c>
       <c r="D34" t="n">
-        <v>95.12</v>
+        <v>69.44</v>
       </c>
     </row>
     <row r="35">
@@ -732,13 +735,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C35" t="n">
-        <v>1.39</v>
+        <v>18.06</v>
       </c>
       <c r="D35" t="n">
-        <v>31.43</v>
+        <v>85.37</v>
       </c>
     </row>
     <row r="36">
@@ -746,13 +749,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C36" t="n">
-        <v>25.0</v>
+        <v>22.22</v>
       </c>
       <c r="D36" t="n">
-        <v>97.56</v>
+        <v>73.17</v>
       </c>
     </row>
     <row r="37">
@@ -760,13 +763,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C37" t="n">
-        <v>50.0</v>
+        <v>5.56</v>
       </c>
       <c r="D37" t="n">
-        <v>90.24</v>
+        <v>75.68</v>
       </c>
     </row>
     <row r="38">
@@ -774,13 +777,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C38" t="n">
-        <v>15.28</v>
+        <v>68.06</v>
       </c>
       <c r="D38" t="n">
-        <v>34.29</v>
+        <v>74.36</v>
       </c>
     </row>
     <row r="39">
@@ -788,13 +791,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C39" t="n">
-        <v>11.11</v>
+        <v>6.94</v>
       </c>
       <c r="D39" t="n">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="40">
@@ -802,13 +805,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C40" t="n">
-        <v>15.28</v>
+        <v>37.5</v>
       </c>
       <c r="D40" t="n">
-        <v>56.76</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="41">
@@ -816,13 +819,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C41" t="n">
-        <v>62.5</v>
+        <v>16.67</v>
       </c>
       <c r="D41" t="n">
-        <v>92.68</v>
+        <v>90.24</v>
       </c>
     </row>
     <row r="42">
@@ -830,13 +833,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C42" t="n">
-        <v>59.72</v>
+        <v>8.33</v>
       </c>
       <c r="D42" t="n">
-        <v>95.12</v>
+        <v>89.74</v>
       </c>
     </row>
     <row r="43">
@@ -844,13 +847,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C43" t="n">
-        <v>4.17</v>
+        <v>5.56</v>
       </c>
       <c r="D43" t="n">
-        <v>85.0</v>
+        <v>55.56</v>
       </c>
     </row>
     <row r="44">
@@ -858,13 +861,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C44" t="n">
-        <v>2.78</v>
+        <v>11.11</v>
       </c>
       <c r="D44" t="n">
-        <v>92.68</v>
+        <v>82.93</v>
       </c>
     </row>
     <row r="45">
@@ -872,13 +875,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C45" t="n">
-        <v>15.28</v>
+        <v>22.22</v>
       </c>
       <c r="D45" t="n">
-        <v>92.5</v>
+        <v>78.95</v>
       </c>
     </row>
     <row r="46">
@@ -886,13 +889,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C46" t="n">
-        <v>9.72</v>
+        <v>5.56</v>
       </c>
       <c r="D46" t="n">
-        <v>37.84</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="47">
@@ -900,13 +903,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C47" t="n">
-        <v>1.39</v>
+        <v>9.72</v>
       </c>
       <c r="D47" t="n">
-        <v>50.0</v>
+        <v>89.47</v>
       </c>
     </row>
     <row r="48">
@@ -914,13 +917,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C48" t="n">
-        <v>9.72</v>
+        <v>1.39</v>
       </c>
       <c r="D48" t="n">
-        <v>70.0</v>
+        <v>43.59</v>
       </c>
     </row>
     <row r="49">
@@ -928,13 +931,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C49" t="n">
-        <v>2.78</v>
+        <v>1.39</v>
       </c>
       <c r="D49" t="n">
-        <v>66.67</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="50">
@@ -942,13 +945,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C50" t="n">
-        <v>13.89</v>
+        <v>1.39</v>
       </c>
       <c r="D50" t="n">
-        <v>80.49</v>
+        <v>31.43</v>
       </c>
     </row>
     <row r="51">
@@ -956,13 +959,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C51" t="n">
-        <v>25.0</v>
+        <v>15.28</v>
       </c>
       <c r="D51" t="n">
-        <v>64.1</v>
+        <v>56.76</v>
       </c>
     </row>
     <row r="52">
@@ -970,13 +973,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C52" t="n">
-        <v>95.83</v>
+        <v>4.17</v>
       </c>
       <c r="D52" t="n">
-        <v>69.44</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="53">
@@ -984,13 +987,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C53" t="n">
-        <v>18.06</v>
+        <v>2.78</v>
       </c>
       <c r="D53" t="n">
-        <v>85.37</v>
+        <v>92.68</v>
       </c>
     </row>
     <row r="54">
@@ -998,13 +1001,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C54" t="n">
-        <v>72.22</v>
+        <v>1.39</v>
       </c>
       <c r="D54" t="n">
-        <v>95.12</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="55">
@@ -1012,13 +1015,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C55" t="n">
-        <v>12.5</v>
+        <v>2.78</v>
       </c>
       <c r="D55" t="n">
-        <v>44.74</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="56">
@@ -1026,13 +1029,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C56" t="n">
-        <v>37.5</v>
+        <v>5.56</v>
       </c>
       <c r="D56" t="n">
-        <v>87.8</v>
+        <v>89.74</v>
       </c>
     </row>
     <row r="57">
@@ -1040,12 +1043,26 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D57" t="n">
+        <v>44.74</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
         <v>60</v>
       </c>
-      <c r="C57" t="n">
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" t="n">
         <v>1.39</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D58" t="n">
         <v>76.32</v>
       </c>
     </row>
